--- a/va_facility_data_2025-02-20/Johnstown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Johnstown%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Johnstown VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Johnstown%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R4b15eeb0e8924156952ec70fec1b80f6"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1e13b3dea88340f38adcb300bceb930b"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R1adf1dc87f244ec8b1e77b9c1ccd2f36"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R55059f543f70429cbcbd8bd228c8a1e7"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R9589f3f337754bedb57c8cc403c0726f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Re3ac5e64c564478399effbabd8571d96"/>
   </x:sheets>
 </x:workbook>
 </file>
